--- a/MO/mo_lb2.xlsx
+++ b/MO/mo_lb2.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>1)Метод Пауэлла</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>2) Метод Фибоначчи</t>
   </si>
@@ -79,6 +77,57 @@
   </si>
   <si>
     <t>F(9 - k)</t>
+  </si>
+  <si>
+    <t>1)Метод Фибоначи</t>
+  </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>x2=x1+h</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>f(x3)</t>
+  </si>
+  <si>
+    <t>fmin</t>
+  </si>
+  <si>
+    <t>xmin</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>x*</t>
+  </si>
+  <si>
+    <t>|(fmin-f(x*))/f(x*)|</t>
+  </si>
+  <si>
+    <t>f(x*)</t>
+  </si>
+  <si>
+    <t>|(xmin-x*)/x*|</t>
+  </si>
+  <si>
+    <t>x*=</t>
+  </si>
+  <si>
+    <t>f(x*)=</t>
   </si>
 </sst>
 </file>
@@ -94,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +162,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,10 +193,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,69 +498,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -500,13 +587,29 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <f xml:space="preserve"> K2 + (G2)*(N2 - K2)/(I2)</f>
+        <v>1.3820224719101124</v>
+      </c>
+      <c r="M2">
+        <f xml:space="preserve"> K2 + H2*(N2 - K2)/I2</f>
+        <v>1.6179775280898876</v>
+      </c>
       <c r="N2">
         <v>2</v>
       </c>
+      <c r="O2">
+        <f xml:space="preserve"> $B$3/(L2*(4 - L2^2))</f>
+        <v>4.5006897432308657</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> $B$3/(M2*(4 - M2^2))</f>
+        <v>5.8132110634108702</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>13</v>
@@ -518,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> ($N$2 -$K$2)/(C3)</f>
+        <f xml:space="preserve"> ($N$2 -$K$2)/($C3)</f>
         <v>1</v>
       </c>
       <c r="F3">
@@ -540,10 +643,38 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <f xml:space="preserve"> IF(O2 &lt; P2,K2,L2)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f xml:space="preserve"> K3 + (G3)*(N3 - K3)/(I3)</f>
+        <v>1.2359550561797752</v>
+      </c>
+      <c r="M3">
+        <f xml:space="preserve"> K3 + H3*(N3 - K3)/I3</f>
+        <v>1.3820224719101124</v>
+      </c>
+      <c r="N3">
+        <f xml:space="preserve"> IF(O2&lt;P2,M2,N2)</f>
+        <v>1.6179775280898876</v>
+      </c>
+      <c r="O3">
+        <f xml:space="preserve"> $B$3/(L3*(4 - L3^2))</f>
+        <v>4.2542135509506833</v>
+      </c>
+      <c r="P3">
+        <f xml:space="preserve"> $B$3/(M3*(4 - M3^2))</f>
+        <v>4.5006897432308657</v>
+      </c>
+      <c r="Q3">
+        <f xml:space="preserve"> (N3 - K3)/C3</f>
+        <v>0.6179775280898876</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -556,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E15" si="5" xml:space="preserve"> ($N$2 -$K$2)/(C4)</f>
+        <f t="shared" ref="E4:E12" si="5" xml:space="preserve"> ($N$2 -$K$2)/($C4)</f>
         <v>1</v>
       </c>
       <c r="F4">
@@ -578,10 +709,38 @@
       <c r="J4">
         <v>2</v>
       </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="7" xml:space="preserve"> IF(O3 &lt; P3,K3,L3)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="8" xml:space="preserve"> K4 + (G4)*(N4 - K4)/(I4)</f>
+        <v>1.146067415730337</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="9" xml:space="preserve"> K4 + H4*(N4 - K4)/I4</f>
+        <v>1.2359550561797752</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="10" xml:space="preserve"> IF(O3&lt;P3,M3,N3)</f>
+        <v>1.3820224719101124</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O12" si="11" xml:space="preserve"> $B$3/(L4*(4 - L4^2))</f>
+        <v>4.2222269828984231</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P12" si="12" xml:space="preserve"> $B$3/(M4*(4 - M4^2))</f>
+        <v>4.2542135509506833</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q11" si="13" xml:space="preserve"> (N4 - K4)/C4</f>
+        <v>0.3820224719101124</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f t="shared" ref="C5:C14" si="7" xml:space="preserve"> C3 + C4</f>
+        <f t="shared" ref="C5:C14" si="14" xml:space="preserve"> C3 + C4</f>
         <v>2</v>
       </c>
       <c r="D5">
@@ -610,10 +769,38 @@
       <c r="J5">
         <v>3</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>1.0898876404494382</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="9"/>
+        <v>1.146067415730337</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="10"/>
+        <v>1.2359550561797752</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="11"/>
+        <v>4.2415434991380003</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="12"/>
+        <v>4.2222269828984231</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="13"/>
+        <v>0.1179775280898876</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="D6">
@@ -642,10 +829,38 @@
       <c r="J6">
         <v>4</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>1.0898876404494382</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>1.146067415730337</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="9"/>
+        <v>1.1797752808988764</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="10"/>
+        <v>1.2359550561797752</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="11"/>
+        <v>4.2222269828984231</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="12"/>
+        <v>4.224883885496693</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="13"/>
+        <v>4.8689138576778999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="D7">
@@ -674,10 +889,38 @@
       <c r="J7">
         <v>5</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>1.0898876404494382</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>1.1235955056179776</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="9"/>
+        <v>1.146067415730337</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="10"/>
+        <v>1.1797752808988764</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>4.2264328537170268</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="12"/>
+        <v>4.2222269828984231</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="13"/>
+        <v>1.7977528089887639E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="D8">
@@ -706,10 +949,38 @@
       <c r="J8" s="2">
         <v>6</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>1.1235955056179776</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>1.1460674157303372</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>1.1573033707865168</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="10"/>
+        <v>1.1797752808988764</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="11"/>
+        <v>4.2222269828984231</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="12"/>
+        <v>4.2219060452153085</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="13"/>
+        <v>7.0224719101123489E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="D9" s="2">
@@ -738,10 +1009,38 @@
       <c r="J9">
         <v>7</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>1.1460674157303372</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>1.157303370786517</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="9"/>
+        <v>1.1685393258426966</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="10"/>
+        <v>1.1797752808988764</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>4.2219060452153085</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="12"/>
+        <v>4.2227872819628143</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="13"/>
+        <v>2.5929127052722453E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="D10">
@@ -767,16 +1066,44 @@
       <c r="J10">
         <v>8</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>1.1460674157303372</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>1.1573033707865168</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="9"/>
+        <v>1.1573033707865168</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="10"/>
+        <v>1.1685393258426966</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="11"/>
+        <v>4.2219060452153085</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="12"/>
+        <v>4.2219060452153085</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="13"/>
+        <v>1.0700909577313993E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <f t="shared" si="5"/>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -796,16 +1123,44 @@
       <c r="J11" s="2">
         <v>9</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>1.1573033707865168</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>1.1573033707865168</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>1.1685393258426966</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="10"/>
+        <v>1.1685393258426966</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="11"/>
+        <v>4.2219060452153085</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="12"/>
+        <v>4.2227872819628143</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="13"/>
+        <v>3.3046926635822948E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <f t="shared" si="5"/>
         <v>1.8181818181818181E-2</v>
       </c>
@@ -821,69 +1176,436 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
-        <v>1.1235955056179775E-2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f xml:space="preserve"> C13 + C14</f>
-        <v>233</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="5"/>
-        <v>4.2918454935622317E-3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="6"/>
-        <v>0.02</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="8">
+        <f>B2+C2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="6">
+        <f>13/(B2*(4-B2^2))</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F2" s="8">
+        <f>13/(D2*(4-D2^2))</f>
+        <v>4.9523809523809526</v>
+      </c>
+      <c r="G2" s="6">
+        <f>IF(E2&gt;F2,B2+2*C2,B2-C2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="8">
+        <f>13/(G2*(4-G2^2))</f>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="I2" s="6">
+        <f>MIN(E2:F2,H2)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <f>E2</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="L2" s="8">
+        <f>(F2-E2)/(D2-B2)</f>
+        <v>1.238095238095239</v>
+      </c>
+      <c r="M2" s="6">
+        <f>(1/(G2-D2))*(((H2-E2)/(G2-B2))-((F2-E2)/(D2-B2)))</f>
+        <v>6.4380952380952401</v>
+      </c>
+      <c r="N2" s="8">
+        <f>(D2+B2)/2-L2/(2*M2)</f>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="O2" s="6">
+        <f>ABS((I2-P2)/P2)</f>
+        <v>2.6399635867091462E-2</v>
+      </c>
+      <c r="P2" s="8">
+        <f>13/(N2*(4-N2^2))</f>
+        <v>4.2218773096821876</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>ABS((J2-N2)/N2)</f>
+        <v>0.13333333333333325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <f>IF(P2&lt;I2,N2,J2)</f>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="8">
+        <f>B3+C3</f>
+        <v>1.6538461538461537</v>
+      </c>
+      <c r="E3" s="6">
+        <f>13/(B3*(4-B3^2))</f>
+        <v>4.2218773096821876</v>
+      </c>
+      <c r="F3" s="8">
+        <f>13/(D3*(4-D3^2))</f>
+        <v>6.2148238814089485</v>
+      </c>
+      <c r="G3" s="6">
+        <f>IF(E3&gt;F3,B3+2*C3,B3-C3)</f>
+        <v>0.65384615384615374</v>
+      </c>
+      <c r="H3" s="8">
+        <f>13/(G3*(4-G3^2))</f>
+        <v>5.5654122518572651</v>
+      </c>
+      <c r="I3" s="6">
+        <f>MIN(E3:F3,H3)</f>
+        <v>4.2218773096821876</v>
+      </c>
+      <c r="J3" s="8">
+        <f>B3</f>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="K3" s="6">
+        <f>E3</f>
+        <v>4.2218773096821876</v>
+      </c>
+      <c r="L3" s="8">
+        <f>(F3-E3)/(D3-B3)</f>
+        <v>3.9858931434535219</v>
+      </c>
+      <c r="M3" s="6">
+        <f>(1/(G3-D3))*(((H3-E3)/(G3-B3))-((F3-E3)/(D3-B3)))</f>
+        <v>6.6729630278036769</v>
+      </c>
+      <c r="N3" s="8">
+        <f>(D3+B3)/2-L3/(2*M3)</f>
+        <v>1.1051862386895857</v>
+      </c>
+      <c r="O3" s="6">
+        <f>ABS((I3-P3)/P3)</f>
+        <v>2.7178819454833658E-3</v>
+      </c>
+      <c r="P3" s="8">
+        <f>13/(N3*(4-N3^2))</f>
+        <v>4.233383145301115</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>ABS((J3-N3)/N3)</f>
+        <v>4.4028701636987383E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="11">
+        <f>J3</f>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <f>I3</f>
+        <v>4.2218773096821876</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MO/mo_lb2.xlsx
+++ b/MO/mo_lb2.xlsx
@@ -143,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -216,6 +222,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,7 +506,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="6" xml:space="preserve"> 2 * $B$4</f>
+        <f t="shared" ref="F4:F12" si="6" xml:space="preserve"> 2 * $B$4</f>
         <v>0.02</v>
       </c>
       <c r="G4">
@@ -710,27 +717,27 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K12" si="7" xml:space="preserve"> IF(O3 &lt; P3,K3,L3)</f>
+        <f t="shared" ref="K4:K11" si="7" xml:space="preserve"> IF(O3 &lt; P3,K3,L3)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="8" xml:space="preserve"> K4 + (G4)*(N4 - K4)/(I4)</f>
+        <f t="shared" ref="L4:L11" si="8" xml:space="preserve"> K4 + (G4)*(N4 - K4)/(I4)</f>
         <v>1.146067415730337</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M12" si="9" xml:space="preserve"> K4 + H4*(N4 - K4)/I4</f>
+        <f t="shared" ref="M4:M11" si="9" xml:space="preserve"> K4 + H4*(N4 - K4)/I4</f>
         <v>1.2359550561797752</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N12" si="10" xml:space="preserve"> IF(O3&lt;P3,M3,N3)</f>
+        <f t="shared" ref="N4:N11" si="10" xml:space="preserve"> IF(O3&lt;P3,M3,N3)</f>
         <v>1.3820224719101124</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O12" si="11" xml:space="preserve"> $B$3/(L4*(4 - L4^2))</f>
+        <f t="shared" ref="O4:O11" si="11" xml:space="preserve"> $B$3/(L4*(4 - L4^2))</f>
         <v>4.2222269828984231</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P12" si="12" xml:space="preserve"> $B$3/(M4*(4 - M4^2))</f>
+        <f t="shared" ref="P4:P11" si="12" xml:space="preserve"> $B$3/(M4*(4 - M4^2))</f>
         <v>4.2542135509506833</v>
       </c>
       <c r="Q4">
@@ -740,7 +747,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f t="shared" ref="C5:C14" si="14" xml:space="preserve"> C3 + C4</f>
+        <f t="shared" ref="C5:C12" si="14" xml:space="preserve"> C3 + C4</f>
         <v>2</v>
       </c>
       <c r="D5">
@@ -1070,11 +1077,11 @@
         <f t="shared" si="7"/>
         <v>1.1460674157303372</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="12">
         <f t="shared" si="8"/>
         <v>1.1573033707865168</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="12">
         <f t="shared" si="9"/>
         <v>1.1573033707865168</v>
       </c>
@@ -1193,11 +1200,12 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1508,7 +1516,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>-1</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1527,7 +1537,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>-1</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
